--- a/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,12 @@
     <t>['67', '75']</t>
   </si>
   <si>
+    <t>['19', '30', '37', '56', '59', '79']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['34', '90']</t>
   </si>
   <si>
@@ -758,6 +764,9 @@
   </si>
   <si>
     <t>['29', '68']</t>
+  </si>
+  <si>
+    <t>['32', '81']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1462,7 @@
         <v>2.14</v>
       </c>
       <c r="AT2">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1745,7 +1754,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1936,7 +1945,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2127,7 +2136,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2408,7 +2417,7 @@
         <v>1.86</v>
       </c>
       <c r="AT7">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2509,7 +2518,7 @@
         <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2596,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT8">
         <v>0.21</v>
@@ -2700,7 +2709,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2787,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT9">
         <v>2.46</v>
@@ -2978,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT10">
         <v>1.69</v>
@@ -3172,7 +3181,7 @@
         <v>2.23</v>
       </c>
       <c r="AT11">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3273,7 +3282,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3551,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT13">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU13">
         <v>1.38</v>
@@ -3655,7 +3664,7 @@
         <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3846,7 +3855,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4610,7 +4619,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -4700,7 +4709,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT19">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU19">
         <v>1.1</v>
@@ -4888,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT20">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU20">
         <v>1.56</v>
@@ -4992,7 +5001,7 @@
         <v>76</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5079,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT21">
         <v>1.69</v>
@@ -5652,7 +5661,7 @@
         <v>1.5</v>
       </c>
       <c r="AS24">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT24">
         <v>0.29</v>
@@ -5846,7 +5855,7 @@
         <v>2.29</v>
       </c>
       <c r="AT25">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU25">
         <v>2.26</v>
@@ -6037,7 +6046,7 @@
         <v>1.86</v>
       </c>
       <c r="AT26">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU26">
         <v>1.67</v>
@@ -6138,7 +6147,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6520,7 +6529,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6711,7 +6720,7 @@
         <v>76</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6798,7 +6807,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT30">
         <v>1.64</v>
@@ -6902,7 +6911,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6989,10 +6998,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT31">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU31">
         <v>1.46</v>
@@ -7093,7 +7102,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7284,7 +7293,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7562,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT34">
         <v>0.29</v>
@@ -7857,7 +7866,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7947,7 +7956,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT36">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU36">
         <v>1.08</v>
@@ -8138,7 +8147,7 @@
         <v>1.43</v>
       </c>
       <c r="AT37">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU37">
         <v>1.53</v>
@@ -8239,7 +8248,7 @@
         <v>102</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -8621,7 +8630,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -9003,7 +9012,7 @@
         <v>106</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9281,7 +9290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT43">
         <v>0.21</v>
@@ -9385,7 +9394,7 @@
         <v>76</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9663,10 +9672,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU45">
         <v>1.2</v>
@@ -9767,7 +9776,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9854,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT46">
         <v>0.92</v>
@@ -9958,7 +9967,7 @@
         <v>110</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10045,10 +10054,10 @@
         <v>1.33</v>
       </c>
       <c r="AS47">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT47">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU47">
         <v>2</v>
@@ -10149,7 +10158,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10430,7 +10439,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU49">
         <v>1.39</v>
@@ -10722,7 +10731,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10913,7 +10922,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11576,7 +11585,7 @@
         <v>2.29</v>
       </c>
       <c r="AT55">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU55">
         <v>2.14</v>
@@ -11677,7 +11686,7 @@
         <v>76</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -11764,7 +11773,7 @@
         <v>2.5</v>
       </c>
       <c r="AS56">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT56">
         <v>2.46</v>
@@ -11868,7 +11877,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -11955,10 +11964,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT57">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU57">
         <v>1.16</v>
@@ -12059,7 +12068,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12146,7 +12155,7 @@
         <v>0.83</v>
       </c>
       <c r="AS58">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT58">
         <v>1.21</v>
@@ -12250,7 +12259,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>7</v>
@@ -12340,7 +12349,7 @@
         <v>2.29</v>
       </c>
       <c r="AT59">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU59">
         <v>1.88</v>
@@ -12632,7 +12641,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12722,7 +12731,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT61">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU61">
         <v>1.01</v>
@@ -12823,7 +12832,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13014,7 +13023,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13205,7 +13214,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13295,7 +13304,7 @@
         <v>2.14</v>
       </c>
       <c r="AT64">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU64">
         <v>1.64</v>
@@ -13483,7 +13492,7 @@
         <v>1.4</v>
       </c>
       <c r="AS65">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT65">
         <v>0.92</v>
@@ -13587,7 +13596,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13778,7 +13787,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -13865,7 +13874,7 @@
         <v>0.71</v>
       </c>
       <c r="AS67">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT67">
         <v>1.21</v>
@@ -13969,7 +13978,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14056,10 +14065,10 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT68">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU68">
         <v>1.29</v>
@@ -14441,7 +14450,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU70">
         <v>1.25</v>
@@ -14924,7 +14933,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15115,7 +15124,7 @@
         <v>131</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15306,7 +15315,7 @@
         <v>132</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15393,7 +15402,7 @@
         <v>0.29</v>
       </c>
       <c r="AS75">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT75">
         <v>0.21</v>
@@ -15587,7 +15596,7 @@
         <v>2.23</v>
       </c>
       <c r="AT76">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU76">
         <v>1.26</v>
@@ -15775,10 +15784,10 @@
         <v>0.43</v>
       </c>
       <c r="AS77">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT77">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU77">
         <v>1.83</v>
@@ -15879,7 +15888,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -15966,7 +15975,7 @@
         <v>1.57</v>
       </c>
       <c r="AS78">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT78">
         <v>1.69</v>
@@ -16070,7 +16079,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16157,10 +16166,10 @@
         <v>1.14</v>
       </c>
       <c r="AS79">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT79">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU79">
         <v>1.26</v>
@@ -16261,7 +16270,7 @@
         <v>76</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16733,7 +16742,7 @@
         <v>1.86</v>
       </c>
       <c r="AT82">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16834,7 +16843,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16921,7 +16930,7 @@
         <v>1.63</v>
       </c>
       <c r="AS83">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT83">
         <v>1.64</v>
@@ -17025,7 +17034,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17115,7 +17124,7 @@
         <v>2.14</v>
       </c>
       <c r="AT84">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU84">
         <v>1.58</v>
@@ -17598,7 +17607,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17685,7 +17694,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT87">
         <v>0.92</v>
@@ -17789,7 +17798,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17879,7 +17888,7 @@
         <v>1.43</v>
       </c>
       <c r="AT88">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU88">
         <v>1.46</v>
@@ -17980,7 +17989,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18067,10 +18076,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT89">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU89">
         <v>1.12</v>
@@ -18171,7 +18180,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18261,7 +18270,7 @@
         <v>2.29</v>
       </c>
       <c r="AT90">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU90">
         <v>1.62</v>
@@ -18362,7 +18371,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18553,7 +18562,7 @@
         <v>118</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18831,7 +18840,7 @@
         <v>0.33</v>
       </c>
       <c r="AS93">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT93">
         <v>0.21</v>
@@ -19025,7 +19034,7 @@
         <v>2.23</v>
       </c>
       <c r="AT94">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU94">
         <v>1.29</v>
@@ -19317,7 +19326,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19404,7 +19413,7 @@
         <v>1.78</v>
       </c>
       <c r="AS96">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT96">
         <v>1.64</v>
@@ -19699,7 +19708,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -19786,7 +19795,7 @@
         <v>2.44</v>
       </c>
       <c r="AS98">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT98">
         <v>2.46</v>
@@ -19890,7 +19899,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19977,10 +19986,10 @@
         <v>0.7</v>
       </c>
       <c r="AS99">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT99">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU99">
         <v>1.12</v>
@@ -20272,7 +20281,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20463,7 +20472,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20553,7 +20562,7 @@
         <v>1.43</v>
       </c>
       <c r="AT102">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -20935,7 +20944,7 @@
         <v>1.86</v>
       </c>
       <c r="AT104">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU104">
         <v>1.39</v>
@@ -21418,7 +21427,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21887,10 +21896,10 @@
         <v>1.18</v>
       </c>
       <c r="AS109">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT109">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU109">
         <v>1.73</v>
@@ -21991,7 +22000,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22078,7 +22087,7 @@
         <v>2.5</v>
       </c>
       <c r="AS110">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT110">
         <v>2.46</v>
@@ -22182,7 +22191,7 @@
         <v>75</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22269,7 +22278,7 @@
         <v>1.5</v>
       </c>
       <c r="AS111">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT111">
         <v>1.69</v>
@@ -22373,7 +22382,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22463,7 +22472,7 @@
         <v>1.86</v>
       </c>
       <c r="AT112">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU112">
         <v>1.35</v>
@@ -22564,7 +22573,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22654,7 +22663,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT113">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU113">
         <v>1.07</v>
@@ -22946,7 +22955,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23224,7 +23233,7 @@
         <v>0.36</v>
       </c>
       <c r="AS116">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT116">
         <v>0.29</v>
@@ -23901,7 +23910,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -23988,7 +23997,7 @@
         <v>2.36</v>
       </c>
       <c r="AS120">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT120">
         <v>2.46</v>
@@ -24179,7 +24188,7 @@
         <v>0.25</v>
       </c>
       <c r="AS121">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT121">
         <v>0.21</v>
@@ -24283,7 +24292,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24564,7 +24573,7 @@
         <v>2.29</v>
       </c>
       <c r="AT123">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU123">
         <v>1.61</v>
@@ -24755,7 +24764,7 @@
         <v>1.5</v>
       </c>
       <c r="AT124">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU124">
         <v>1.31</v>
@@ -24856,7 +24865,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25047,7 +25056,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25134,7 +25143,7 @@
         <v>1.73</v>
       </c>
       <c r="AS126">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT126">
         <v>1.69</v>
@@ -25516,7 +25525,7 @@
         <v>0.33</v>
       </c>
       <c r="AS128">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT128">
         <v>0.29</v>
@@ -25620,7 +25629,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25710,7 +25719,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT129">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU129">
         <v>1.04</v>
@@ -25811,7 +25820,7 @@
         <v>76</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26002,7 +26011,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26193,7 +26202,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26665,7 +26674,7 @@
         <v>2.14</v>
       </c>
       <c r="AT134">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU134">
         <v>1.58</v>
@@ -27099,6 +27108,579 @@
       </c>
       <c r="BK136">
         <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2470677</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F137">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>67</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>3</v>
+      </c>
+      <c r="L137">
+        <v>6</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>7</v>
+      </c>
+      <c r="O137" t="s">
+        <v>182</v>
+      </c>
+      <c r="P137" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q137">
+        <v>9</v>
+      </c>
+      <c r="R137">
+        <v>6</v>
+      </c>
+      <c r="S137">
+        <v>15</v>
+      </c>
+      <c r="T137">
+        <v>2.4</v>
+      </c>
+      <c r="U137">
+        <v>2.25</v>
+      </c>
+      <c r="V137">
+        <v>4</v>
+      </c>
+      <c r="W137">
+        <v>1.34</v>
+      </c>
+      <c r="X137">
+        <v>3.1</v>
+      </c>
+      <c r="Y137">
+        <v>2.6</v>
+      </c>
+      <c r="Z137">
+        <v>1.45</v>
+      </c>
+      <c r="AA137">
+        <v>6</v>
+      </c>
+      <c r="AB137">
+        <v>1.11</v>
+      </c>
+      <c r="AC137">
+        <v>1.9</v>
+      </c>
+      <c r="AD137">
+        <v>3.45</v>
+      </c>
+      <c r="AE137">
+        <v>3.5</v>
+      </c>
+      <c r="AF137">
+        <v>1.03</v>
+      </c>
+      <c r="AG137">
+        <v>13.75</v>
+      </c>
+      <c r="AH137">
+        <v>1.25</v>
+      </c>
+      <c r="AI137">
+        <v>3.75</v>
+      </c>
+      <c r="AJ137">
+        <v>1.67</v>
+      </c>
+      <c r="AK137">
+        <v>2</v>
+      </c>
+      <c r="AL137">
+        <v>1.68</v>
+      </c>
+      <c r="AM137">
+        <v>2.1</v>
+      </c>
+      <c r="AN137">
+        <v>1.2</v>
+      </c>
+      <c r="AO137">
+        <v>1.22</v>
+      </c>
+      <c r="AP137">
+        <v>1.87</v>
+      </c>
+      <c r="AQ137">
+        <v>1.77</v>
+      </c>
+      <c r="AR137">
+        <v>0.92</v>
+      </c>
+      <c r="AS137">
+        <v>1.86</v>
+      </c>
+      <c r="AT137">
+        <v>0.86</v>
+      </c>
+      <c r="AU137">
+        <v>1.74</v>
+      </c>
+      <c r="AV137">
+        <v>1.09</v>
+      </c>
+      <c r="AW137">
+        <v>2.83</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>12</v>
+      </c>
+      <c r="BG137">
+        <v>6</v>
+      </c>
+      <c r="BH137">
+        <v>9</v>
+      </c>
+      <c r="BI137">
+        <v>2</v>
+      </c>
+      <c r="BJ137">
+        <v>21</v>
+      </c>
+      <c r="BK137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2470678</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F138">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>71</v>
+      </c>
+      <c r="H138" t="s">
+        <v>69</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>183</v>
+      </c>
+      <c r="P138" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q138">
+        <v>6</v>
+      </c>
+      <c r="R138">
+        <v>9</v>
+      </c>
+      <c r="S138">
+        <v>15</v>
+      </c>
+      <c r="T138">
+        <v>4</v>
+      </c>
+      <c r="U138">
+        <v>2.25</v>
+      </c>
+      <c r="V138">
+        <v>2.4</v>
+      </c>
+      <c r="W138">
+        <v>1.34</v>
+      </c>
+      <c r="X138">
+        <v>3.1</v>
+      </c>
+      <c r="Y138">
+        <v>2.65</v>
+      </c>
+      <c r="Z138">
+        <v>1.43</v>
+      </c>
+      <c r="AA138">
+        <v>6</v>
+      </c>
+      <c r="AB138">
+        <v>1.11</v>
+      </c>
+      <c r="AC138">
+        <v>3.4</v>
+      </c>
+      <c r="AD138">
+        <v>3.45</v>
+      </c>
+      <c r="AE138">
+        <v>1.95</v>
+      </c>
+      <c r="AF138">
+        <v>1.03</v>
+      </c>
+      <c r="AG138">
+        <v>14</v>
+      </c>
+      <c r="AH138">
+        <v>1.25</v>
+      </c>
+      <c r="AI138">
+        <v>3.75</v>
+      </c>
+      <c r="AJ138">
+        <v>1.67</v>
+      </c>
+      <c r="AK138">
+        <v>2</v>
+      </c>
+      <c r="AL138">
+        <v>1.68</v>
+      </c>
+      <c r="AM138">
+        <v>2.1</v>
+      </c>
+      <c r="AN138">
+        <v>1.72</v>
+      </c>
+      <c r="AO138">
+        <v>1.22</v>
+      </c>
+      <c r="AP138">
+        <v>1.22</v>
+      </c>
+      <c r="AQ138">
+        <v>0.77</v>
+      </c>
+      <c r="AR138">
+        <v>1.15</v>
+      </c>
+      <c r="AS138">
+        <v>0.79</v>
+      </c>
+      <c r="AT138">
+        <v>1.14</v>
+      </c>
+      <c r="AU138">
+        <v>1.22</v>
+      </c>
+      <c r="AV138">
+        <v>1.41</v>
+      </c>
+      <c r="AW138">
+        <v>2.63</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>3</v>
+      </c>
+      <c r="BG138">
+        <v>7</v>
+      </c>
+      <c r="BH138">
+        <v>7</v>
+      </c>
+      <c r="BI138">
+        <v>11</v>
+      </c>
+      <c r="BJ138">
+        <v>10</v>
+      </c>
+      <c r="BK138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2470679</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F139">
+        <v>28</v>
+      </c>
+      <c r="G139" t="s">
+        <v>72</v>
+      </c>
+      <c r="H139" t="s">
+        <v>74</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>76</v>
+      </c>
+      <c r="P139" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q139">
+        <v>5</v>
+      </c>
+      <c r="R139">
+        <v>5</v>
+      </c>
+      <c r="S139">
+        <v>10</v>
+      </c>
+      <c r="T139">
+        <v>2.88</v>
+      </c>
+      <c r="U139">
+        <v>2.25</v>
+      </c>
+      <c r="V139">
+        <v>3.2</v>
+      </c>
+      <c r="W139">
+        <v>1.33</v>
+      </c>
+      <c r="X139">
+        <v>3.15</v>
+      </c>
+      <c r="Y139">
+        <v>2.5</v>
+      </c>
+      <c r="Z139">
+        <v>1.48</v>
+      </c>
+      <c r="AA139">
+        <v>5.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.13</v>
+      </c>
+      <c r="AC139">
+        <v>2.25</v>
+      </c>
+      <c r="AD139">
+        <v>3.4</v>
+      </c>
+      <c r="AE139">
+        <v>2.75</v>
+      </c>
+      <c r="AF139">
+        <v>1.03</v>
+      </c>
+      <c r="AG139">
+        <v>14.75</v>
+      </c>
+      <c r="AH139">
+        <v>1.22</v>
+      </c>
+      <c r="AI139">
+        <v>4</v>
+      </c>
+      <c r="AJ139">
+        <v>1.7</v>
+      </c>
+      <c r="AK139">
+        <v>2.1</v>
+      </c>
+      <c r="AL139">
+        <v>1.57</v>
+      </c>
+      <c r="AM139">
+        <v>2.3</v>
+      </c>
+      <c r="AN139">
+        <v>1.3</v>
+      </c>
+      <c r="AO139">
+        <v>1.22</v>
+      </c>
+      <c r="AP139">
+        <v>1.66</v>
+      </c>
+      <c r="AQ139">
+        <v>1.69</v>
+      </c>
+      <c r="AR139">
+        <v>0.93</v>
+      </c>
+      <c r="AS139">
+        <v>1.57</v>
+      </c>
+      <c r="AT139">
+        <v>1.07</v>
+      </c>
+      <c r="AU139">
+        <v>1.37</v>
+      </c>
+      <c r="AV139">
+        <v>1.2</v>
+      </c>
+      <c r="AW139">
+        <v>2.57</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>2</v>
+      </c>
+      <c r="BG139">
+        <v>7</v>
+      </c>
+      <c r="BH139">
+        <v>3</v>
+      </c>
+      <c r="BI139">
+        <v>4</v>
+      </c>
+      <c r="BJ139">
+        <v>5</v>
+      </c>
+      <c r="BK139">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT2" t="n">
         <v>1.07</v>
@@ -1106,7 +1106,7 @@
         <v>2.29</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.79</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT11" t="n">
         <v>0.86</v>
@@ -2930,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU12" t="n">
         <v>0.85</v>
@@ -3339,7 +3339,7 @@
         <v>2.29</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU14" t="n">
         <v>1.64</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT15" t="n">
         <v>1.21</v>
@@ -3742,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU16" t="n">
         <v>1.43</v>
@@ -3948,7 +3948,7 @@
         <v>1.86</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU17" t="n">
         <v>1.66</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT18" t="n">
         <v>2.46</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT20" t="n">
         <v>1.07</v>
@@ -4760,7 +4760,7 @@
         <v>1.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU21" t="n">
         <v>0.5</v>
@@ -4960,10 +4960,10 @@
         <v>0.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.58</v>
@@ -5163,7 +5163,7 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT23" t="n">
         <v>1.21</v>
@@ -5369,7 +5369,7 @@
         <v>1.57</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU24" t="n">
         <v>0.8</v>
@@ -5975,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT27" t="n">
         <v>2.46</v>
@@ -6178,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU28" t="n">
         <v>1.67</v>
@@ -6384,7 +6384,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU29" t="n">
         <v>1.06</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU30" t="n">
         <v>2.3</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU32" t="n">
         <v>1.82</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.26</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU34" t="n">
         <v>1.94</v>
@@ -7599,10 +7599,10 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU35" t="n">
         <v>1.79</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT37" t="n">
         <v>1.07</v>
@@ -8211,7 +8211,7 @@
         <v>1.86</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU38" t="n">
         <v>1.63</v>
@@ -8414,7 +8414,7 @@
         <v>2.29</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU39" t="n">
         <v>2.14</v>
@@ -8614,10 +8614,10 @@
         <v>0.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.65</v>
@@ -8817,7 +8817,7 @@
         <v>1.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT41" t="n">
         <v>1.21</v>
@@ -9226,7 +9226,7 @@
         <v>1.57</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU43" t="n">
         <v>0.96</v>
@@ -9429,7 +9429,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU44" t="n">
         <v>1.08</v>
@@ -9835,7 +9835,7 @@
         <v>0.79</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU46" t="n">
         <v>1.32</v>
@@ -10035,7 +10035,7 @@
         <v>1.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT47" t="n">
         <v>1.14</v>
@@ -10238,7 +10238,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT48" t="n">
         <v>2.46</v>
@@ -10441,7 +10441,7 @@
         <v>1.25</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT49" t="n">
         <v>1.14</v>
@@ -10644,10 +10644,10 @@
         <v>2.4</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -10847,10 +10847,10 @@
         <v>0.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU51" t="n">
         <v>1.29</v>
@@ -11053,7 +11053,7 @@
         <v>1.86</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU52" t="n">
         <v>1.61</v>
@@ -11253,10 +11253,10 @@
         <v>0.4</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.56</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT54" t="n">
         <v>1.21</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13286,7 +13286,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU63" t="n">
         <v>0.98</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT64" t="n">
         <v>0.86</v>
@@ -13689,10 +13689,10 @@
         <v>1.4</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU65" t="n">
         <v>1.91</v>
@@ -13892,10 +13892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU66" t="n">
         <v>1.38</v>
@@ -14704,7 +14704,7 @@
         <v>1.17</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT70" t="n">
         <v>1.07</v>
@@ -14910,7 +14910,7 @@
         <v>1.86</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15113,7 +15113,7 @@
         <v>2.29</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU72" t="n">
         <v>1.63</v>
@@ -15313,10 +15313,10 @@
         <v>0.43</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU73" t="n">
         <v>1.57</v>
@@ -15516,10 +15516,10 @@
         <v>1.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU74" t="n">
         <v>1.27</v>
@@ -15719,10 +15719,10 @@
         <v>0.29</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.75</v>
@@ -15922,7 +15922,7 @@
         <v>1.57</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT76" t="n">
         <v>1.14</v>
@@ -16125,7 +16125,7 @@
         <v>0.43</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT77" t="n">
         <v>0.86</v>
@@ -16331,7 +16331,7 @@
         <v>0.79</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16937,10 +16937,10 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU81" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>0.79</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU83" t="n">
         <v>1.13</v>
@@ -17546,7 +17546,7 @@
         <v>1.38</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT84" t="n">
         <v>1.14</v>
@@ -17952,10 +17952,10 @@
         <v>0.38</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU86" t="n">
         <v>1.3</v>
@@ -18158,7 +18158,7 @@
         <v>1.57</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU87" t="n">
         <v>1.26</v>
@@ -18358,7 +18358,7 @@
         <v>0.38</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT88" t="n">
         <v>0.86</v>
@@ -19170,7 +19170,7 @@
         <v>2.38</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT92" t="n">
         <v>2.46</v>
@@ -19376,7 +19376,7 @@
         <v>1.57</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU93" t="n">
         <v>1.23</v>
@@ -19576,7 +19576,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT94" t="n">
         <v>0.86</v>
@@ -19779,10 +19779,10 @@
         <v>0.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU95" t="n">
         <v>1.42</v>
@@ -19982,10 +19982,10 @@
         <v>1.78</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU96" t="n">
         <v>1.8</v>
@@ -20188,7 +20188,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU97" t="n">
         <v>1.01</v>
@@ -20797,7 +20797,7 @@
         <v>2.29</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU100" t="n">
         <v>1.63</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT102" t="n">
         <v>1.07</v>
@@ -21406,7 +21406,7 @@
         <v>2.29</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU103" t="n">
         <v>1.6</v>
@@ -21809,10 +21809,10 @@
         <v>1.9</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU105" t="n">
         <v>1.29</v>
@@ -22012,10 +22012,10 @@
         <v>0.3</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU106" t="n">
         <v>1.54</v>
@@ -22215,7 +22215,7 @@
         <v>1.36</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT107" t="n">
         <v>1.21</v>
@@ -22421,7 +22421,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU108" t="n">
         <v>1.05</v>
@@ -22621,7 +22621,7 @@
         <v>1.18</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT109" t="n">
         <v>1.07</v>
@@ -23030,7 +23030,7 @@
         <v>1.57</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU111" t="n">
         <v>1.25</v>
@@ -23636,10 +23636,10 @@
         <v>1.73</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU114" t="n">
         <v>1.41</v>
@@ -23839,10 +23839,10 @@
         <v>1.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU115" t="n">
         <v>1.31</v>
@@ -24042,10 +24042,10 @@
         <v>0.36</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU116" t="n">
         <v>1.84</v>
@@ -24245,10 +24245,10 @@
         <v>0.27</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.23</v>
@@ -24448,10 +24448,10 @@
         <v>1.09</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU118" t="n">
         <v>1.57</v>
@@ -24651,10 +24651,10 @@
         <v>1.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU119" t="n">
         <v>1.34</v>
@@ -24854,7 +24854,7 @@
         <v>2.36</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT120" t="n">
         <v>2.46</v>
@@ -25060,7 +25060,7 @@
         <v>0.79</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU121" t="n">
         <v>1.16</v>
@@ -25260,7 +25260,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT122" t="n">
         <v>1.21</v>
@@ -25666,7 +25666,7 @@
         <v>1.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT124" t="n">
         <v>1.14</v>
@@ -25872,7 +25872,7 @@
         <v>1.86</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU125" t="n">
         <v>1.35</v>
@@ -26072,10 +26072,10 @@
         <v>1.73</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU126" t="n">
         <v>1.77</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU127" t="n">
         <v>1.37</v>
@@ -26481,7 +26481,7 @@
         <v>1.57</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU128" t="n">
         <v>1.29</v>
@@ -26884,7 +26884,7 @@
         <v>2.42</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT130" t="n">
         <v>2.46</v>
@@ -27087,7 +27087,7 @@
         <v>1.31</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT131" t="n">
         <v>1.21</v>
@@ -27290,10 +27290,10 @@
         <v>1.54</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU132" t="n">
         <v>1.3</v>
@@ -27496,7 +27496,7 @@
         <v>1.86</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AU133" t="n">
         <v>1.4</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT134" t="n">
         <v>1.07</v>
@@ -27902,7 +27902,7 @@
         <v>2.29</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AU135" t="n">
         <v>1.59</v>
@@ -28102,10 +28102,10 @@
         <v>1.83</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU136" t="n">
         <v>1.59</v>
@@ -28305,7 +28305,7 @@
         <v>0.92</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT137" t="n">
         <v>0.86</v>
@@ -28766,6 +28766,1021 @@
       </c>
       <c r="BK139" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2470686</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>29</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Queen of the South</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>2</v>
+      </c>
+      <c r="R140" t="n">
+        <v>9</v>
+      </c>
+      <c r="S140" t="n">
+        <v>11</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2470684</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>29</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Dunfermline Athletic</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>4</v>
+      </c>
+      <c r="R141" t="n">
+        <v>8</v>
+      </c>
+      <c r="S141" t="n">
+        <v>12</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V141" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2470683</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>29</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Alloa Athletic</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>3</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['9', '60', '90']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2</v>
+      </c>
+      <c r="S142" t="n">
+        <v>8</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V142" t="n">
+        <v>5</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2470685</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['81', '87']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>6</v>
+      </c>
+      <c r="R143" t="n">
+        <v>11</v>
+      </c>
+      <c r="S143" t="n">
+        <v>17</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2470682</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>29</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Airdrieonians</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>4</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>4</v>
+      </c>
+      <c r="L144" t="n">
+        <v>7</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>7</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['2', '10', '13', '45+2', '47', '63', '87']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>2</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>2</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['2', '10', '13', '45+2', '47', '63', '87']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['34', '90']</t>
   </si>
   <si>
@@ -776,6 +779,18 @@
   </si>
   <si>
     <t>['81', '87']</t>
+  </si>
+  <si>
+    <t>['2', '14', '37', '69', '89']</t>
+  </si>
+  <si>
+    <t>['64', '80', '84']</t>
+  </si>
+  <si>
+    <t>['52', '73']</t>
+  </si>
+  <si>
+    <t>['22', '29', '55']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1486,7 @@
         <v>2.07</v>
       </c>
       <c r="AT2">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1659,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT3">
         <v>1.07</v>
@@ -1763,7 +1778,7 @@
         <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1954,7 +1969,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2041,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT5">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2145,7 +2160,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2423,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT7">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2527,7 +2542,7 @@
         <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2614,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT8">
         <v>0.2</v>
@@ -2718,7 +2733,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2805,10 +2820,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT9">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3190,7 +3205,7 @@
         <v>2.29</v>
       </c>
       <c r="AT11">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3291,7 +3306,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3569,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT13">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU13">
         <v>1.38</v>
@@ -3673,7 +3688,7 @@
         <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -3760,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT14">
         <v>0.2</v>
@@ -3864,7 +3879,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3954,7 +3969,7 @@
         <v>1.53</v>
       </c>
       <c r="AT15">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>1.63</v>
@@ -4333,7 +4348,7 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT17">
         <v>0.27</v>
@@ -4527,7 +4542,7 @@
         <v>1.4</v>
       </c>
       <c r="AT18">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU18">
         <v>2.13</v>
@@ -4628,7 +4643,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -4715,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT19">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU19">
         <v>1.1</v>
@@ -4909,7 +4924,7 @@
         <v>1.93</v>
       </c>
       <c r="AT20">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU20">
         <v>1.56</v>
@@ -5010,7 +5025,7 @@
         <v>76</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5097,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT21">
         <v>1.57</v>
@@ -5482,7 +5497,7 @@
         <v>2.07</v>
       </c>
       <c r="AT23">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>1.47</v>
@@ -5670,7 +5685,7 @@
         <v>1.5</v>
       </c>
       <c r="AS24">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT24">
         <v>0.27</v>
@@ -5861,10 +5876,10 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU25">
         <v>2.26</v>
@@ -6052,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT26">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU26">
         <v>1.67</v>
@@ -6156,7 +6171,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6246,7 +6261,7 @@
         <v>1.53</v>
       </c>
       <c r="AT27">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU27">
         <v>1.49</v>
@@ -6538,7 +6553,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6625,7 +6640,7 @@
         <v>0.5</v>
       </c>
       <c r="AS29">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT29">
         <v>1.07</v>
@@ -6729,7 +6744,7 @@
         <v>76</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6920,7 +6935,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7007,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT31">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU31">
         <v>1.46</v>
@@ -7111,7 +7126,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7302,7 +7317,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7875,7 +7890,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7962,10 +7977,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT36">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU36">
         <v>1.08</v>
@@ -8156,7 +8171,7 @@
         <v>1.53</v>
       </c>
       <c r="AT37">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU37">
         <v>1.53</v>
@@ -8257,7 +8272,7 @@
         <v>102</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -8344,7 +8359,7 @@
         <v>2.25</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT38">
         <v>1.6</v>
@@ -8535,7 +8550,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT39">
         <v>0.27</v>
@@ -8639,7 +8654,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8920,7 +8935,7 @@
         <v>1.4</v>
       </c>
       <c r="AT41">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU41">
         <v>1.53</v>
@@ -9021,7 +9036,7 @@
         <v>106</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9108,10 +9123,10 @@
         <v>1.25</v>
       </c>
       <c r="AS42">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT42">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU42">
         <v>1.58</v>
@@ -9299,7 +9314,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT43">
         <v>0.2</v>
@@ -9403,7 +9418,7 @@
         <v>76</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9490,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT44">
         <v>1.57</v>
@@ -9681,10 +9696,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT45">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU45">
         <v>1.2</v>
@@ -9785,7 +9800,7 @@
         <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9872,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT46">
         <v>1.07</v>
@@ -9976,7 +9991,7 @@
         <v>110</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10066,7 +10081,7 @@
         <v>1.93</v>
       </c>
       <c r="AT47">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU47">
         <v>2</v>
@@ -10167,7 +10182,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10257,7 +10272,7 @@
         <v>2.29</v>
       </c>
       <c r="AT48">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU48">
         <v>1.79</v>
@@ -10448,7 +10463,7 @@
         <v>1.4</v>
       </c>
       <c r="AT49">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU49">
         <v>1.39</v>
@@ -10740,7 +10755,7 @@
         <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10931,7 +10946,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11018,7 +11033,7 @@
         <v>1.4</v>
       </c>
       <c r="AS52">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT52">
         <v>1.57</v>
@@ -11403,7 +11418,7 @@
         <v>2.29</v>
       </c>
       <c r="AT54">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU54">
         <v>1.42</v>
@@ -11591,10 +11606,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT55">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU55">
         <v>2.14</v>
@@ -11695,7 +11710,7 @@
         <v>76</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -11782,10 +11797,10 @@
         <v>2.5</v>
       </c>
       <c r="AS56">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT56">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU56">
         <v>1.24</v>
@@ -11886,7 +11901,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -11973,10 +11988,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT57">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU57">
         <v>1.16</v>
@@ -12077,7 +12092,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12164,10 +12179,10 @@
         <v>0.83</v>
       </c>
       <c r="AS58">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT58">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU58">
         <v>1.27</v>
@@ -12268,7 +12283,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>7</v>
@@ -12355,10 +12370,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT59">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU59">
         <v>1.88</v>
@@ -12546,10 +12561,10 @@
         <v>2.6</v>
       </c>
       <c r="AS60">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT60">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU60">
         <v>1.51</v>
@@ -12650,7 +12665,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12737,10 +12752,10 @@
         <v>0.8</v>
       </c>
       <c r="AS61">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT61">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU61">
         <v>1.01</v>
@@ -12841,7 +12856,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13032,7 +13047,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13119,7 +13134,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT63">
         <v>1.6</v>
@@ -13223,7 +13238,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13313,7 +13328,7 @@
         <v>2.07</v>
       </c>
       <c r="AT64">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU64">
         <v>1.64</v>
@@ -13605,7 +13620,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13796,7 +13811,7 @@
         <v>76</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -13883,10 +13898,10 @@
         <v>0.71</v>
       </c>
       <c r="AS67">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT67">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.19</v>
@@ -13987,7 +14002,7 @@
         <v>76</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14074,10 +14089,10 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT68">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU68">
         <v>1.29</v>
@@ -14265,10 +14280,10 @@
         <v>2.17</v>
       </c>
       <c r="AS69">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT69">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU69">
         <v>1.77</v>
@@ -14459,7 +14474,7 @@
         <v>1.4</v>
       </c>
       <c r="AT70">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU70">
         <v>1.25</v>
@@ -14647,7 +14662,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT71">
         <v>0.2</v>
@@ -14838,7 +14853,7 @@
         <v>1.86</v>
       </c>
       <c r="AS72">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT72">
         <v>1.6</v>
@@ -14942,7 +14957,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15133,7 +15148,7 @@
         <v>131</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15324,7 +15339,7 @@
         <v>132</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -15605,7 +15620,7 @@
         <v>2.29</v>
       </c>
       <c r="AT76">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU76">
         <v>1.26</v>
@@ -15796,7 +15811,7 @@
         <v>1.93</v>
       </c>
       <c r="AT77">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU77">
         <v>1.83</v>
@@ -15897,7 +15912,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -15984,7 +15999,7 @@
         <v>1.57</v>
       </c>
       <c r="AS78">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT78">
         <v>1.57</v>
@@ -16088,7 +16103,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16175,10 +16190,10 @@
         <v>1.14</v>
       </c>
       <c r="AS79">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT79">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU79">
         <v>1.26</v>
@@ -16279,7 +16294,7 @@
         <v>76</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16366,10 +16381,10 @@
         <v>2.29</v>
       </c>
       <c r="AS80">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT80">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU80">
         <v>1.04</v>
@@ -16748,10 +16763,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT82">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16852,7 +16867,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16939,7 +16954,7 @@
         <v>1.63</v>
       </c>
       <c r="AS83">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT83">
         <v>1.6</v>
@@ -17043,7 +17058,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17133,7 +17148,7 @@
         <v>2.07</v>
       </c>
       <c r="AT84">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU84">
         <v>1.58</v>
@@ -17321,10 +17336,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT85">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU85">
         <v>1.63</v>
@@ -17616,7 +17631,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17703,7 +17718,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT87">
         <v>1.07</v>
@@ -17807,7 +17822,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17897,7 +17912,7 @@
         <v>1.53</v>
       </c>
       <c r="AT88">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU88">
         <v>1.46</v>
@@ -17998,7 +18013,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18085,10 +18100,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT89">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU89">
         <v>1.12</v>
@@ -18189,7 +18204,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18276,10 +18291,10 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT90">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU90">
         <v>1.62</v>
@@ -18380,7 +18395,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18467,10 +18482,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT91">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU91">
         <v>1.41</v>
@@ -18571,7 +18586,7 @@
         <v>118</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18661,7 +18676,7 @@
         <v>1.4</v>
       </c>
       <c r="AT92">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU92">
         <v>1.35</v>
@@ -18849,7 +18864,7 @@
         <v>0.33</v>
       </c>
       <c r="AS93">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT93">
         <v>0.2</v>
@@ -19043,7 +19058,7 @@
         <v>2.29</v>
       </c>
       <c r="AT94">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU94">
         <v>1.29</v>
@@ -19335,7 +19350,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19613,7 +19628,7 @@
         <v>1.22</v>
       </c>
       <c r="AS97">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT97">
         <v>1.07</v>
@@ -19717,7 +19732,7 @@
         <v>76</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -19804,10 +19819,10 @@
         <v>2.44</v>
       </c>
       <c r="AS98">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT98">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU98">
         <v>1.28</v>
@@ -19908,7 +19923,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -19995,10 +20010,10 @@
         <v>0.7</v>
       </c>
       <c r="AS99">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT99">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU99">
         <v>1.12</v>
@@ -20186,7 +20201,7 @@
         <v>1.2</v>
       </c>
       <c r="AS100">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT100">
         <v>1.07</v>
@@ -20290,7 +20305,7 @@
         <v>76</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20377,10 +20392,10 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT101">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU101">
         <v>1.04</v>
@@ -20481,7 +20496,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20571,7 +20586,7 @@
         <v>1.53</v>
       </c>
       <c r="AT102">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -20759,7 +20774,7 @@
         <v>0.44</v>
       </c>
       <c r="AS103">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT103">
         <v>0.27</v>
@@ -20950,10 +20965,10 @@
         <v>1.2</v>
       </c>
       <c r="AS104">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT104">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU104">
         <v>1.39</v>
@@ -21436,7 +21451,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21526,7 +21541,7 @@
         <v>1.4</v>
       </c>
       <c r="AT107">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU107">
         <v>1.32</v>
@@ -21714,7 +21729,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT108">
         <v>0.27</v>
@@ -21908,7 +21923,7 @@
         <v>1.93</v>
       </c>
       <c r="AT109">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU109">
         <v>1.73</v>
@@ -22009,7 +22024,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22096,10 +22111,10 @@
         <v>2.5</v>
       </c>
       <c r="AS110">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT110">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU110">
         <v>1.19</v>
@@ -22200,7 +22215,7 @@
         <v>75</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22287,7 +22302,7 @@
         <v>1.5</v>
       </c>
       <c r="AS111">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT111">
         <v>1.57</v>
@@ -22391,7 +22406,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22478,10 +22493,10 @@
         <v>0.91</v>
       </c>
       <c r="AS112">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT112">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU112">
         <v>1.35</v>
@@ -22582,7 +22597,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22669,10 +22684,10 @@
         <v>1.09</v>
       </c>
       <c r="AS113">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT113">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU113">
         <v>1.07</v>
@@ -22964,7 +22979,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23919,7 +23934,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24009,7 +24024,7 @@
         <v>1.93</v>
       </c>
       <c r="AT120">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU120">
         <v>1.8</v>
@@ -24197,7 +24212,7 @@
         <v>0.25</v>
       </c>
       <c r="AS121">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT121">
         <v>0.2</v>
@@ -24301,7 +24316,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24391,7 +24406,7 @@
         <v>2.07</v>
       </c>
       <c r="AT122">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU122">
         <v>1.56</v>
@@ -24579,10 +24594,10 @@
         <v>1.08</v>
       </c>
       <c r="AS123">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT123">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU123">
         <v>1.61</v>
@@ -24773,7 +24788,7 @@
         <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU124">
         <v>1.31</v>
@@ -24874,7 +24889,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24961,7 +24976,7 @@
         <v>1.58</v>
       </c>
       <c r="AS125">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT125">
         <v>1.6</v>
@@ -25065,7 +25080,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>8</v>
@@ -25534,7 +25549,7 @@
         <v>0.33</v>
       </c>
       <c r="AS128">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT128">
         <v>0.27</v>
@@ -25638,7 +25653,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25725,10 +25740,10 @@
         <v>0.92</v>
       </c>
       <c r="AS129">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT129">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU129">
         <v>1.04</v>
@@ -25829,7 +25844,7 @@
         <v>76</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -25919,7 +25934,7 @@
         <v>1.53</v>
       </c>
       <c r="AT130">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU130">
         <v>1.43</v>
@@ -26020,7 +26035,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26110,7 +26125,7 @@
         <v>1.53</v>
       </c>
       <c r="AT131">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU131">
         <v>1.44</v>
@@ -26211,7 +26226,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26489,7 +26504,7 @@
         <v>0.31</v>
       </c>
       <c r="AS133">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT133">
         <v>0.27</v>
@@ -26683,7 +26698,7 @@
         <v>2.07</v>
       </c>
       <c r="AT134">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU134">
         <v>1.58</v>
@@ -26871,7 +26886,7 @@
         <v>0.23</v>
       </c>
       <c r="AS135">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT135">
         <v>0.2</v>
@@ -27256,7 +27271,7 @@
         <v>1.93</v>
       </c>
       <c r="AT137">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU137">
         <v>1.74</v>
@@ -27444,10 +27459,10 @@
         <v>1.15</v>
       </c>
       <c r="AS138">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT138">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU138">
         <v>1.22</v>
@@ -27548,7 +27563,7 @@
         <v>76</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27635,10 +27650,10 @@
         <v>0.93</v>
       </c>
       <c r="AS139">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AT139">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU139">
         <v>1.37</v>
@@ -28312,7 +28327,7 @@
         <v>77</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28645,6 +28660,961 @@
       </c>
       <c r="BK144">
         <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2470687</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45009.6875</v>
+      </c>
+      <c r="F145">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" t="s">
+        <v>73</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>3</v>
+      </c>
+      <c r="K145">
+        <v>4</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145">
+        <v>6</v>
+      </c>
+      <c r="O145" t="s">
+        <v>173</v>
+      </c>
+      <c r="P145" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q145">
+        <v>6</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+      <c r="S145">
+        <v>9</v>
+      </c>
+      <c r="T145">
+        <v>4.8</v>
+      </c>
+      <c r="U145">
+        <v>2.3</v>
+      </c>
+      <c r="V145">
+        <v>2.15</v>
+      </c>
+      <c r="W145">
+        <v>1.32</v>
+      </c>
+      <c r="X145">
+        <v>3.1</v>
+      </c>
+      <c r="Y145">
+        <v>2.45</v>
+      </c>
+      <c r="Z145">
+        <v>1.48</v>
+      </c>
+      <c r="AA145">
+        <v>5.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.11</v>
+      </c>
+      <c r="AC145">
+        <v>4</v>
+      </c>
+      <c r="AD145">
+        <v>3.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.73</v>
+      </c>
+      <c r="AF145">
+        <v>1.03</v>
+      </c>
+      <c r="AG145">
+        <v>14.5</v>
+      </c>
+      <c r="AH145">
+        <v>1.21</v>
+      </c>
+      <c r="AI145">
+        <v>3.95</v>
+      </c>
+      <c r="AJ145">
+        <v>1.67</v>
+      </c>
+      <c r="AK145">
+        <v>2.1</v>
+      </c>
+      <c r="AL145">
+        <v>1.73</v>
+      </c>
+      <c r="AM145">
+        <v>2</v>
+      </c>
+      <c r="AN145">
+        <v>2.15</v>
+      </c>
+      <c r="AO145">
+        <v>1.22</v>
+      </c>
+      <c r="AP145">
+        <v>1.17</v>
+      </c>
+      <c r="AQ145">
+        <v>0.79</v>
+      </c>
+      <c r="AR145">
+        <v>1.21</v>
+      </c>
+      <c r="AS145">
+        <v>0.73</v>
+      </c>
+      <c r="AT145">
+        <v>1.33</v>
+      </c>
+      <c r="AU145">
+        <v>1.21</v>
+      </c>
+      <c r="AV145">
+        <v>1.57</v>
+      </c>
+      <c r="AW145">
+        <v>2.78</v>
+      </c>
+      <c r="AX145">
+        <v>3.78</v>
+      </c>
+      <c r="AY145">
+        <v>9.5</v>
+      </c>
+      <c r="AZ145">
+        <v>1.36</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>1.29</v>
+      </c>
+      <c r="BC145">
+        <v>1.5</v>
+      </c>
+      <c r="BD145">
+        <v>1.85</v>
+      </c>
+      <c r="BE145">
+        <v>2.43</v>
+      </c>
+      <c r="BF145">
+        <v>4</v>
+      </c>
+      <c r="BG145">
+        <v>6</v>
+      </c>
+      <c r="BH145">
+        <v>8</v>
+      </c>
+      <c r="BI145">
+        <v>4</v>
+      </c>
+      <c r="BJ145">
+        <v>12</v>
+      </c>
+      <c r="BK145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2470688</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45009.69791666666</v>
+      </c>
+      <c r="F146">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146" t="s">
+        <v>69</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>3</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>112</v>
+      </c>
+      <c r="P146" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q146">
+        <v>3</v>
+      </c>
+      <c r="R146">
+        <v>6</v>
+      </c>
+      <c r="S146">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>3.4</v>
+      </c>
+      <c r="U146">
+        <v>2.25</v>
+      </c>
+      <c r="V146">
+        <v>2.75</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>3.25</v>
+      </c>
+      <c r="Y146">
+        <v>2.5</v>
+      </c>
+      <c r="Z146">
+        <v>1.5</v>
+      </c>
+      <c r="AA146">
+        <v>6.5</v>
+      </c>
+      <c r="AB146">
+        <v>1.11</v>
+      </c>
+      <c r="AC146">
+        <v>2.9</v>
+      </c>
+      <c r="AD146">
+        <v>3.3</v>
+      </c>
+      <c r="AE146">
+        <v>2.1</v>
+      </c>
+      <c r="AF146">
+        <v>1.03</v>
+      </c>
+      <c r="AG146">
+        <v>14</v>
+      </c>
+      <c r="AH146">
+        <v>1.22</v>
+      </c>
+      <c r="AI146">
+        <v>3.8</v>
+      </c>
+      <c r="AJ146">
+        <v>1.67</v>
+      </c>
+      <c r="AK146">
+        <v>2.1</v>
+      </c>
+      <c r="AL146">
+        <v>1.62</v>
+      </c>
+      <c r="AM146">
+        <v>2.2</v>
+      </c>
+      <c r="AN146">
+        <v>1.65</v>
+      </c>
+      <c r="AO146">
+        <v>1.29</v>
+      </c>
+      <c r="AP146">
+        <v>1.4</v>
+      </c>
+      <c r="AQ146">
+        <v>1.57</v>
+      </c>
+      <c r="AR146">
+        <v>1.14</v>
+      </c>
+      <c r="AS146">
+        <v>1.47</v>
+      </c>
+      <c r="AT146">
+        <v>1.27</v>
+      </c>
+      <c r="AU146">
+        <v>1.32</v>
+      </c>
+      <c r="AV146">
+        <v>1.45</v>
+      </c>
+      <c r="AW146">
+        <v>2.77</v>
+      </c>
+      <c r="AX146">
+        <v>2.36</v>
+      </c>
+      <c r="AY146">
+        <v>7.6</v>
+      </c>
+      <c r="AZ146">
+        <v>1.82</v>
+      </c>
+      <c r="BA146">
+        <v>1.2</v>
+      </c>
+      <c r="BB146">
+        <v>1.38</v>
+      </c>
+      <c r="BC146">
+        <v>1.67</v>
+      </c>
+      <c r="BD146">
+        <v>2.12</v>
+      </c>
+      <c r="BE146">
+        <v>2.85</v>
+      </c>
+      <c r="BF146">
+        <v>2</v>
+      </c>
+      <c r="BG146">
+        <v>12</v>
+      </c>
+      <c r="BH146">
+        <v>11</v>
+      </c>
+      <c r="BI146">
+        <v>10</v>
+      </c>
+      <c r="BJ146">
+        <v>13</v>
+      </c>
+      <c r="BK146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2470689</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45009.69791666666</v>
+      </c>
+      <c r="F147">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>66</v>
+      </c>
+      <c r="H147" t="s">
+        <v>67</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>76</v>
+      </c>
+      <c r="P147" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q147">
+        <v>9</v>
+      </c>
+      <c r="R147">
+        <v>3</v>
+      </c>
+      <c r="S147">
+        <v>12</v>
+      </c>
+      <c r="T147">
+        <v>2.05</v>
+      </c>
+      <c r="U147">
+        <v>2.35</v>
+      </c>
+      <c r="V147">
+        <v>5.25</v>
+      </c>
+      <c r="W147">
+        <v>1.32</v>
+      </c>
+      <c r="X147">
+        <v>3.15</v>
+      </c>
+      <c r="Y147">
+        <v>2.4</v>
+      </c>
+      <c r="Z147">
+        <v>1.5</v>
+      </c>
+      <c r="AA147">
+        <v>5.25</v>
+      </c>
+      <c r="AB147">
+        <v>1.12</v>
+      </c>
+      <c r="AC147">
+        <v>1.5</v>
+      </c>
+      <c r="AD147">
+        <v>3.9</v>
+      </c>
+      <c r="AE147">
+        <v>5.25</v>
+      </c>
+      <c r="AF147">
+        <v>1.03</v>
+      </c>
+      <c r="AG147">
+        <v>16.25</v>
+      </c>
+      <c r="AH147">
+        <v>1.2</v>
+      </c>
+      <c r="AI147">
+        <v>4.07</v>
+      </c>
+      <c r="AJ147">
+        <v>1.6</v>
+      </c>
+      <c r="AK147">
+        <v>2.2</v>
+      </c>
+      <c r="AL147">
+        <v>1.8</v>
+      </c>
+      <c r="AM147">
+        <v>1.91</v>
+      </c>
+      <c r="AN147">
+        <v>1.14</v>
+      </c>
+      <c r="AO147">
+        <v>1.18</v>
+      </c>
+      <c r="AP147">
+        <v>2.35</v>
+      </c>
+      <c r="AQ147">
+        <v>2.29</v>
+      </c>
+      <c r="AR147">
+        <v>0.86</v>
+      </c>
+      <c r="AS147">
+        <v>2.2</v>
+      </c>
+      <c r="AT147">
+        <v>0.87</v>
+      </c>
+      <c r="AU147">
+        <v>1.66</v>
+      </c>
+      <c r="AV147">
+        <v>1.1</v>
+      </c>
+      <c r="AW147">
+        <v>2.76</v>
+      </c>
+      <c r="AX147">
+        <v>1.3</v>
+      </c>
+      <c r="AY147">
+        <v>9.6</v>
+      </c>
+      <c r="AZ147">
+        <v>4.3</v>
+      </c>
+      <c r="BA147">
+        <v>1.22</v>
+      </c>
+      <c r="BB147">
+        <v>1.42</v>
+      </c>
+      <c r="BC147">
+        <v>1.74</v>
+      </c>
+      <c r="BD147">
+        <v>2.23</v>
+      </c>
+      <c r="BE147">
+        <v>3</v>
+      </c>
+      <c r="BF147">
+        <v>5</v>
+      </c>
+      <c r="BG147">
+        <v>2</v>
+      </c>
+      <c r="BH147">
+        <v>5</v>
+      </c>
+      <c r="BI147">
+        <v>1</v>
+      </c>
+      <c r="BJ147">
+        <v>10</v>
+      </c>
+      <c r="BK147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2470691</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45010.5</v>
+      </c>
+      <c r="F148">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>68</v>
+      </c>
+      <c r="H148" t="s">
+        <v>74</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>76</v>
+      </c>
+      <c r="P148" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q148">
+        <v>5</v>
+      </c>
+      <c r="R148">
+        <v>4</v>
+      </c>
+      <c r="S148">
+        <v>9</v>
+      </c>
+      <c r="T148">
+        <v>5.5</v>
+      </c>
+      <c r="U148">
+        <v>2.38</v>
+      </c>
+      <c r="V148">
+        <v>2.05</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>3.25</v>
+      </c>
+      <c r="Y148">
+        <v>2.5</v>
+      </c>
+      <c r="Z148">
+        <v>1.5</v>
+      </c>
+      <c r="AA148">
+        <v>6</v>
+      </c>
+      <c r="AB148">
+        <v>1.13</v>
+      </c>
+      <c r="AC148">
+        <v>5.25</v>
+      </c>
+      <c r="AD148">
+        <v>4</v>
+      </c>
+      <c r="AE148">
+        <v>1.53</v>
+      </c>
+      <c r="AF148">
+        <v>1.03</v>
+      </c>
+      <c r="AG148">
+        <v>16</v>
+      </c>
+      <c r="AH148">
+        <v>1.18</v>
+      </c>
+      <c r="AI148">
+        <v>4.15</v>
+      </c>
+      <c r="AJ148">
+        <v>1.57</v>
+      </c>
+      <c r="AK148">
+        <v>2.15</v>
+      </c>
+      <c r="AL148">
+        <v>1.8</v>
+      </c>
+      <c r="AM148">
+        <v>1.91</v>
+      </c>
+      <c r="AN148">
+        <v>2.38</v>
+      </c>
+      <c r="AO148">
+        <v>1.19</v>
+      </c>
+      <c r="AP148">
+        <v>1.13</v>
+      </c>
+      <c r="AQ148">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR148">
+        <v>1.07</v>
+      </c>
+      <c r="AS148">
+        <v>0.64</v>
+      </c>
+      <c r="AT148">
+        <v>1.19</v>
+      </c>
+      <c r="AU148">
+        <v>1.07</v>
+      </c>
+      <c r="AV148">
+        <v>1.23</v>
+      </c>
+      <c r="AW148">
+        <v>2.3</v>
+      </c>
+      <c r="AX148">
+        <v>3.25</v>
+      </c>
+      <c r="AY148">
+        <v>9.9</v>
+      </c>
+      <c r="AZ148">
+        <v>1.42</v>
+      </c>
+      <c r="BA148">
+        <v>1.22</v>
+      </c>
+      <c r="BB148">
+        <v>1.42</v>
+      </c>
+      <c r="BC148">
+        <v>1.74</v>
+      </c>
+      <c r="BD148">
+        <v>2.23</v>
+      </c>
+      <c r="BE148">
+        <v>3</v>
+      </c>
+      <c r="BF148">
+        <v>0</v>
+      </c>
+      <c r="BG148">
+        <v>3</v>
+      </c>
+      <c r="BH148">
+        <v>6</v>
+      </c>
+      <c r="BI148">
+        <v>6</v>
+      </c>
+      <c r="BJ148">
+        <v>6</v>
+      </c>
+      <c r="BK148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2470690</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45010.54166666666</v>
+      </c>
+      <c r="F149">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
+        <v>70</v>
+      </c>
+      <c r="H149" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>186</v>
+      </c>
+      <c r="P149" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>6</v>
+      </c>
+      <c r="S149">
+        <v>9</v>
+      </c>
+      <c r="T149">
+        <v>3.75</v>
+      </c>
+      <c r="U149">
+        <v>2.3</v>
+      </c>
+      <c r="V149">
+        <v>2.4</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>3.25</v>
+      </c>
+      <c r="Y149">
+        <v>2.5</v>
+      </c>
+      <c r="Z149">
+        <v>1.5</v>
+      </c>
+      <c r="AA149">
+        <v>6</v>
+      </c>
+      <c r="AB149">
+        <v>1.13</v>
+      </c>
+      <c r="AC149">
+        <v>3.25</v>
+      </c>
+      <c r="AD149">
+        <v>3.4</v>
+      </c>
+      <c r="AE149">
+        <v>1.97</v>
+      </c>
+      <c r="AF149">
+        <v>1</v>
+      </c>
+      <c r="AG149">
+        <v>10.5</v>
+      </c>
+      <c r="AH149">
+        <v>1.21</v>
+      </c>
+      <c r="AI149">
+        <v>3.82</v>
+      </c>
+      <c r="AJ149">
+        <v>1.6</v>
+      </c>
+      <c r="AK149">
+        <v>2.1</v>
+      </c>
+      <c r="AL149">
+        <v>1.62</v>
+      </c>
+      <c r="AM149">
+        <v>2.2</v>
+      </c>
+      <c r="AN149">
+        <v>1.75</v>
+      </c>
+      <c r="AO149">
+        <v>1.26</v>
+      </c>
+      <c r="AP149">
+        <v>1.29</v>
+      </c>
+      <c r="AQ149">
+        <v>1.86</v>
+      </c>
+      <c r="AR149">
+        <v>2.46</v>
+      </c>
+      <c r="AS149">
+        <v>1.73</v>
+      </c>
+      <c r="AT149">
+        <v>2.5</v>
+      </c>
+      <c r="AU149">
+        <v>1.44</v>
+      </c>
+      <c r="AV149">
+        <v>1.64</v>
+      </c>
+      <c r="AW149">
+        <v>3.08</v>
+      </c>
+      <c r="AX149">
+        <v>2.64</v>
+      </c>
+      <c r="AY149">
+        <v>7.8</v>
+      </c>
+      <c r="AZ149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>1.18</v>
+      </c>
+      <c r="BB149">
+        <v>1.34</v>
+      </c>
+      <c r="BC149">
+        <v>1.61</v>
+      </c>
+      <c r="BD149">
+        <v>2.02</v>
+      </c>
+      <c r="BE149">
+        <v>2.7</v>
+      </c>
+      <c r="BF149">
+        <v>4</v>
+      </c>
+      <c r="BG149">
+        <v>7</v>
+      </c>
+      <c r="BH149">
+        <v>9</v>
+      </c>
+      <c r="BI149">
+        <v>7</v>
+      </c>
+      <c r="BJ149">
+        <v>13</v>
+      </c>
+      <c r="BK149">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>1.19</v>
@@ -1512,7 +1512,7 @@
         <v>0.64</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT6" t="n">
         <v>0.27</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>
@@ -2527,7 +2527,7 @@
         <v>1.93</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT12" t="n">
         <v>1.6</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU13" t="n">
         <v>1.38</v>
@@ -3339,7 +3339,7 @@
         <v>2.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU14" t="n">
         <v>1.64</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU15" t="n">
         <v>1.63</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>1.07</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU21" t="n">
         <v>0.5</v>
@@ -4960,10 +4960,10 @@
         <v>0.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU22" t="n">
         <v>1.58</v>
@@ -5163,10 +5163,10 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU23" t="n">
         <v>1.47</v>
@@ -5366,7 +5366,7 @@
         <v>1.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT24" t="n">
         <v>0.27</v>
@@ -5775,7 +5775,7 @@
         <v>1.73</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU26" t="n">
         <v>1.67</v>
@@ -5975,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT27" t="n">
         <v>2.5</v>
@@ -6181,7 +6181,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU28" t="n">
         <v>1.67</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT31" t="n">
         <v>1.19</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU32" t="n">
         <v>1.82</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT33" t="n">
         <v>1.6</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT35" t="n">
         <v>1.07</v>
@@ -7805,7 +7805,7 @@
         <v>0.64</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT37" t="n">
         <v>1.19</v>
@@ -8614,10 +8614,10 @@
         <v>0.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU40" t="n">
         <v>1.65</v>
@@ -8820,7 +8820,7 @@
         <v>1.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU41" t="n">
         <v>1.53</v>
@@ -9023,7 +9023,7 @@
         <v>1.73</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU42" t="n">
         <v>1.58</v>
@@ -9223,10 +9223,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU43" t="n">
         <v>0.96</v>
@@ -9429,7 +9429,7 @@
         <v>0.64</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU44" t="n">
         <v>1.08</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU45" t="n">
         <v>1.2</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT46" t="n">
         <v>1.07</v>
@@ -10238,7 +10238,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT48" t="n">
         <v>2.5</v>
@@ -10644,7 +10644,7 @@
         <v>2.4</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
         <v>1.6</v>
@@ -11053,7 +11053,7 @@
         <v>1.73</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU52" t="n">
         <v>1.61</v>
@@ -11253,10 +11253,10 @@
         <v>0.4</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU53" t="n">
         <v>1.56</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU54" t="n">
         <v>1.42</v>
@@ -11862,7 +11862,7 @@
         <v>2.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT56" t="n">
         <v>2.5</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT57" t="n">
         <v>1.27</v>
@@ -12268,10 +12268,10 @@
         <v>0.83</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU58" t="n">
         <v>1.27</v>
@@ -12474,7 +12474,7 @@
         <v>2.2</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU59" t="n">
         <v>1.88</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT62" t="n">
         <v>1.53</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>1.57</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13486,10 +13486,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU64" t="n">
         <v>1.64</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT66" t="n">
         <v>0.27</v>
@@ -14095,10 +14095,10 @@
         <v>0.71</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU67" t="n">
         <v>1.19</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT68" t="n">
         <v>1.27</v>
@@ -14910,7 +14910,7 @@
         <v>1.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15313,7 +15313,7 @@
         <v>0.43</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT73" t="n">
         <v>0.27</v>
@@ -15722,7 +15722,7 @@
         <v>1.93</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU75" t="n">
         <v>1.75</v>
@@ -15922,7 +15922,7 @@
         <v>1.57</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT76" t="n">
         <v>1.27</v>
@@ -16128,7 +16128,7 @@
         <v>1.93</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU77" t="n">
         <v>1.83</v>
@@ -16328,10 +16328,10 @@
         <v>1.57</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16531,7 +16531,7 @@
         <v>1.14</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT79" t="n">
         <v>1.19</v>
@@ -16937,7 +16937,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT81" t="n">
         <v>1.07</v>
@@ -17343,7 +17343,7 @@
         <v>1.63</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT83" t="n">
         <v>1.6</v>
@@ -17546,7 +17546,7 @@
         <v>1.38</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
         <v>1.27</v>
@@ -17752,7 +17752,7 @@
         <v>2.2</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU85" t="n">
         <v>1.63</v>
@@ -17955,7 +17955,7 @@
         <v>1.4</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU86" t="n">
         <v>1.3</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT87" t="n">
         <v>1.07</v>
@@ -18358,10 +18358,10 @@
         <v>0.38</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU88" t="n">
         <v>1.46</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT89" t="n">
         <v>1.19</v>
@@ -18970,7 +18970,7 @@
         <v>1.73</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19373,10 +19373,10 @@
         <v>0.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU93" t="n">
         <v>1.23</v>
@@ -19576,10 +19576,10 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU94" t="n">
         <v>1.29</v>
@@ -19779,7 +19779,7 @@
         <v>0.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT95" t="n">
         <v>0.27</v>
@@ -20388,7 +20388,7 @@
         <v>2.44</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT98" t="n">
         <v>2.5</v>
@@ -20591,10 +20591,10 @@
         <v>0.7</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU99" t="n">
         <v>1.12</v>
@@ -21000,7 +21000,7 @@
         <v>0.64</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU101" t="n">
         <v>1.04</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT102" t="n">
         <v>1.19</v>
@@ -21809,7 +21809,7 @@
         <v>1.9</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT105" t="n">
         <v>1.6</v>
@@ -22012,10 +22012,10 @@
         <v>0.3</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU106" t="n">
         <v>1.54</v>
@@ -22218,7 +22218,7 @@
         <v>1.4</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU107" t="n">
         <v>1.32</v>
@@ -22824,7 +22824,7 @@
         <v>2.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT110" t="n">
         <v>2.5</v>
@@ -23027,10 +23027,10 @@
         <v>1.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU111" t="n">
         <v>1.25</v>
@@ -23233,7 +23233,7 @@
         <v>1.73</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU112" t="n">
         <v>1.35</v>
@@ -23636,7 +23636,7 @@
         <v>1.73</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT114" t="n">
         <v>1.6</v>
@@ -23842,7 +23842,7 @@
         <v>1.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU115" t="n">
         <v>1.31</v>
@@ -24245,10 +24245,10 @@
         <v>0.27</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU117" t="n">
         <v>1.23</v>
@@ -24448,7 +24448,7 @@
         <v>1.09</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
         <v>1.07</v>
@@ -24651,10 +24651,10 @@
         <v>1.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU119" t="n">
         <v>1.34</v>
@@ -25057,10 +25057,10 @@
         <v>0.25</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU121" t="n">
         <v>1.16</v>
@@ -25260,10 +25260,10 @@
         <v>1.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU122" t="n">
         <v>1.56</v>
@@ -26075,7 +26075,7 @@
         <v>1.93</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU126" t="n">
         <v>1.77</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT127" t="n">
         <v>1.07</v>
@@ -26478,7 +26478,7 @@
         <v>0.33</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT128" t="n">
         <v>0.27</v>
@@ -26684,7 +26684,7 @@
         <v>0.64</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU129" t="n">
         <v>1.04</v>
@@ -26884,7 +26884,7 @@
         <v>2.42</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT130" t="n">
         <v>2.5</v>
@@ -27087,10 +27087,10 @@
         <v>1.31</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU131" t="n">
         <v>1.44</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
         <v>1.19</v>
@@ -27902,7 +27902,7 @@
         <v>2.2</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU135" t="n">
         <v>1.59</v>
@@ -28102,10 +28102,10 @@
         <v>1.83</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU136" t="n">
         <v>1.59</v>
@@ -28308,7 +28308,7 @@
         <v>1.93</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU137" t="n">
         <v>1.74</v>
@@ -28508,7 +28508,7 @@
         <v>1.15</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT138" t="n">
         <v>1.27</v>
@@ -28711,7 +28711,7 @@
         <v>0.93</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT139" t="n">
         <v>1.19</v>
@@ -28914,10 +28914,10 @@
         <v>1.69</v>
       </c>
       <c r="AS140" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT140" t="n">
         <v>1.53</v>
-      </c>
-      <c r="AT140" t="n">
-        <v>1.57</v>
       </c>
       <c r="AU140" t="n">
         <v>1.44</v>
@@ -29117,7 +29117,7 @@
         <v>1.64</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>1.6</v>
@@ -29320,7 +29320,7 @@
         <v>0.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT142" t="n">
         <v>0.27</v>
@@ -29729,7 +29729,7 @@
         <v>1.93</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AU144" t="n">
         <v>1.79</v>
@@ -29929,10 +29929,10 @@
         <v>1.21</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU145" t="n">
         <v>1.21</v>
@@ -30132,7 +30132,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT146" t="n">
         <v>1.27</v>
@@ -30338,7 +30338,7 @@
         <v>2.2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU147" t="n">
         <v>1.66</v>
@@ -30795,6 +30795,1021 @@
         <v>13</v>
       </c>
       <c r="BK149" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2470696</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>31</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Queen of the South</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['48', '84']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3</v>
+      </c>
+      <c r="S150" t="n">
+        <v>8</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2470692</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>31</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Alloa Athletic</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Airdrieonians</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>4</v>
+      </c>
+      <c r="R151" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" t="n">
+        <v>7</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2470693</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>31</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2</v>
+      </c>
+      <c r="R152" t="n">
+        <v>9</v>
+      </c>
+      <c r="S152" t="n">
+        <v>11</v>
+      </c>
+      <c r="T152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2470694</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Dunfermline Athletic</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>6</v>
+      </c>
+      <c r="R153" t="n">
+        <v>4</v>
+      </c>
+      <c r="S153" t="n">
+        <v>10</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V153" t="n">
+        <v>5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2470695</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>31</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>5</v>
+      </c>
+      <c r="R154" t="n">
+        <v>6</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK154" t="n">
         <v>14</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland League One_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT5" t="n">
         <v>1.44</v>
@@ -1715,7 +1715,7 @@
         <v>1.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.73</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.44</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1.53</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>0.88</v>
@@ -2930,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0.85</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT14" t="n">
         <v>0.19</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>1.43</v>
@@ -3948,7 +3948,7 @@
         <v>1.73</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU17" t="n">
         <v>1.66</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU18" t="n">
         <v>2.13</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU19" t="n">
         <v>1.1</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.19</v>
@@ -4960,7 +4960,7 @@
         <v>0.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>0.19</v>
@@ -5369,7 +5369,7 @@
         <v>1.44</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU24" t="n">
         <v>0.8</v>
@@ -5569,10 +5569,10 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU25" t="n">
         <v>2.26</v>
@@ -5978,7 +5978,7 @@
         <v>1.63</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU27" t="n">
         <v>1.49</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT28" t="n">
         <v>1.53</v>
@@ -6381,10 +6381,10 @@
         <v>0.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.06</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU30" t="n">
         <v>2.3</v>
@@ -7196,7 +7196,7 @@
         <v>1.63</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.26</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU34" t="n">
         <v>1.94</v>
@@ -7599,10 +7599,10 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.79</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT36" t="n">
         <v>0.88</v>
@@ -8211,7 +8211,7 @@
         <v>1.73</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.63</v>
@@ -8411,10 +8411,10 @@
         <v>0.75</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU39" t="n">
         <v>2.14</v>
@@ -8817,7 +8817,7 @@
         <v>1.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT41" t="n">
         <v>1.44</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT44" t="n">
         <v>1.53</v>
@@ -9835,7 +9835,7 @@
         <v>0.75</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.32</v>
@@ -10035,10 +10035,10 @@
         <v>1.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU47" t="n">
         <v>2</v>
@@ -10238,10 +10238,10 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU48" t="n">
         <v>1.79</v>
@@ -10441,10 +10441,10 @@
         <v>1.25</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU49" t="n">
         <v>1.39</v>
@@ -10647,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -10847,10 +10847,10 @@
         <v>0.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU51" t="n">
         <v>1.29</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>1.44</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT55" t="n">
         <v>1.19</v>
@@ -11865,7 +11865,7 @@
         <v>0.75</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -12068,7 +12068,7 @@
         <v>0.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU57" t="n">
         <v>1.16</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT59" t="n">
         <v>0.88</v>
@@ -12677,7 +12677,7 @@
         <v>1.73</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU60" t="n">
         <v>1.51</v>
@@ -12877,7 +12877,7 @@
         <v>0.8</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT61" t="n">
         <v>1.19</v>
@@ -13283,10 +13283,10 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>0.98</v>
@@ -13689,10 +13689,10 @@
         <v>1.4</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.91</v>
@@ -13892,10 +13892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU66" t="n">
         <v>1.38</v>
@@ -14301,7 +14301,7 @@
         <v>1.44</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU68" t="n">
         <v>1.29</v>
@@ -14501,10 +14501,10 @@
         <v>2.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU69" t="n">
         <v>1.77</v>
@@ -14704,7 +14704,7 @@
         <v>1.17</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT70" t="n">
         <v>1.19</v>
@@ -15110,10 +15110,10 @@
         <v>1.86</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.63</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU73" t="n">
         <v>1.57</v>
@@ -15516,10 +15516,10 @@
         <v>1.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.27</v>
@@ -15719,7 +15719,7 @@
         <v>0.29</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
         <v>0.19</v>
@@ -15922,10 +15922,10 @@
         <v>1.57</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU76" t="n">
         <v>1.26</v>
@@ -16125,7 +16125,7 @@
         <v>0.43</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT77" t="n">
         <v>0.88</v>
@@ -16734,10 +16734,10 @@
         <v>2.29</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU80" t="n">
         <v>1.04</v>
@@ -16940,7 +16940,7 @@
         <v>1.63</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>0.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.13</v>
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU84" t="n">
         <v>1.58</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT85" t="n">
         <v>1.44</v>
@@ -17952,7 +17952,7 @@
         <v>0.38</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT86" t="n">
         <v>0.19</v>
@@ -18158,7 +18158,7 @@
         <v>1.44</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.26</v>
@@ -18764,10 +18764,10 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU90" t="n">
         <v>1.62</v>
@@ -19170,10 +19170,10 @@
         <v>2.38</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU92" t="n">
         <v>1.35</v>
@@ -19576,7 +19576,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.88</v>
@@ -19782,7 +19782,7 @@
         <v>1.63</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU95" t="n">
         <v>1.42</v>
@@ -19982,10 +19982,10 @@
         <v>1.78</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.8</v>
@@ -20185,10 +20185,10 @@
         <v>1.22</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.01</v>
@@ -20391,7 +20391,7 @@
         <v>1.44</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU98" t="n">
         <v>1.28</v>
@@ -20794,10 +20794,10 @@
         <v>1.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.63</v>
@@ -20997,7 +20997,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT101" t="n">
         <v>1.44</v>
@@ -21403,10 +21403,10 @@
         <v>0.44</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU103" t="n">
         <v>1.6</v>
@@ -21609,7 +21609,7 @@
         <v>1.73</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU104" t="n">
         <v>1.39</v>
@@ -21809,10 +21809,10 @@
         <v>1.9</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.29</v>
@@ -22215,7 +22215,7 @@
         <v>1.36</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT107" t="n">
         <v>1.44</v>
@@ -22418,10 +22418,10 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU108" t="n">
         <v>1.05</v>
@@ -22621,7 +22621,7 @@
         <v>1.18</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
         <v>1.19</v>
@@ -22827,7 +22827,7 @@
         <v>0.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU110" t="n">
         <v>1.19</v>
@@ -23433,10 +23433,10 @@
         <v>1.09</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU113" t="n">
         <v>1.07</v>
@@ -23639,7 +23639,7 @@
         <v>1.63</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.41</v>
@@ -23839,7 +23839,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT115" t="n">
         <v>1.53</v>
@@ -24042,10 +24042,10 @@
         <v>0.36</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU116" t="n">
         <v>1.84</v>
@@ -24245,7 +24245,7 @@
         <v>0.27</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT117" t="n">
         <v>0.19</v>
@@ -24451,7 +24451,7 @@
         <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.57</v>
@@ -24651,7 +24651,7 @@
         <v>1.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT119" t="n">
         <v>1.53</v>
@@ -24854,10 +24854,10 @@
         <v>2.36</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU120" t="n">
         <v>1.8</v>
@@ -25463,7 +25463,7 @@
         <v>1.08</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT123" t="n">
         <v>1.19</v>
@@ -25666,10 +25666,10 @@
         <v>1.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU124" t="n">
         <v>1.31</v>
@@ -25872,7 +25872,7 @@
         <v>1.73</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU125" t="n">
         <v>1.35</v>
@@ -26072,7 +26072,7 @@
         <v>1.73</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>1.53</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU127" t="n">
         <v>1.37</v>
@@ -26481,7 +26481,7 @@
         <v>1.44</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU128" t="n">
         <v>1.29</v>
@@ -26681,7 +26681,7 @@
         <v>0.92</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT129" t="n">
         <v>0.88</v>
@@ -26887,7 +26887,7 @@
         <v>1.63</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU130" t="n">
         <v>1.43</v>
@@ -27290,10 +27290,10 @@
         <v>1.54</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU132" t="n">
         <v>1.3</v>
@@ -27496,7 +27496,7 @@
         <v>1.73</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU133" t="n">
         <v>1.4</v>
@@ -27899,7 +27899,7 @@
         <v>0.23</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT135" t="n">
         <v>0.19</v>
@@ -28305,7 +28305,7 @@
         <v>0.92</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT137" t="n">
         <v>0.88</v>
@@ -28511,7 +28511,7 @@
         <v>0.75</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU138" t="n">
         <v>1.22</v>
@@ -29120,7 +29120,7 @@
         <v>2</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.59</v>
@@ -29320,10 +29320,10 @@
         <v>0.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AU142" t="n">
         <v>1.41</v>
@@ -29523,10 +29523,10 @@
         <v>0.92</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.34</v>
@@ -29726,7 +29726,7 @@
         <v>0.21</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT144" t="n">
         <v>0.19</v>
@@ -30135,7 +30135,7 @@
         <v>1.44</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30335,7 +30335,7 @@
         <v>0.86</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT147" t="n">
         <v>0.88</v>
@@ -30538,7 +30538,7 @@
         <v>1.07</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT148" t="n">
         <v>1.19</v>
@@ -30744,7 +30744,7 @@
         <v>1.73</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU149" t="n">
         <v>1.44</v>
@@ -31147,7 +31147,7 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
         <v>1.44</v>
@@ -31759,7 +31759,7 @@
         <v>1.44</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.32</v>
@@ -31811,6 +31811,1021 @@
       </c>
       <c r="BK154" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2470699</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>32</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Dunfermline Athletic</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2</v>
+      </c>
+      <c r="K155" t="n">
+        <v>4</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2</v>
+      </c>
+      <c r="N155" t="n">
+        <v>4</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['8', '33']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['35', '44']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>5</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>8</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2470700</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>32</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>7</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>9</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2470701</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>32</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Edinburgh City</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>3</v>
+      </c>
+      <c r="T157" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2470697</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Airdrieonians</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['60', '88', '90+2']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>3</v>
+      </c>
+      <c r="R158" t="n">
+        <v>5</v>
+      </c>
+      <c r="S158" t="n">
+        <v>8</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2470698</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Scotland League One</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>32</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Alloa Athletic</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Queen of the South</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['14', '35']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>11</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" t="n">
+        <v>11</v>
+      </c>
+      <c r="T159" t="n">
+        <v>3</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
